--- a/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T09:35:07+00:00</t>
+    <t>2025-10-28T11:41:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T11:41:28+00:00</t>
+    <t>2025-10-28T14:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T14:16:13+00:00</t>
+    <t>2025-10-28T15:15:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:15:51+00:00</t>
+    <t>2025-10-29T10:18:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T10:18:40+00:00</t>
+    <t>2025-10-29T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T11:46:56+00:00</t>
+    <t>2025-10-29T12:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T12:55:39+00:00</t>
+    <t>2025-10-29T15:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:03:41+00:00</t>
+    <t>2025-10-30T13:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T13:09:51+00:00</t>
+    <t>2025-10-30T14:07:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:07:11+00:00</t>
+    <t>2025-10-30T14:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:16:37+00:00</t>
+    <t>2025-10-30T15:20:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="121">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T15:20:59+00:00</t>
+    <t>2025-10-30T16:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -377,6 +377,16 @@
   </si>
   <si>
     <t>Prénom réellement porté par la personne physique dans la vie courante.Il peut s'agir du prénom usuel, du surnom ou du pseudonyme de la personne physique.C'est un trait complémentaire provenant du Référentiel National d'Identitovigilance (RNIV).Le prénom utilisé est obligatoirement renseigné lorsqu’il est différent du premier prénom de naissance.</t>
+  </si>
+  <si>
+    <t>PersonnePriseCharge.Professionnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Professionnel
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe Professionnel</t>
   </si>
 </sst>
 </file>
@@ -681,7 +691,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ18"/>
+  <dimension ref="A1:AJ19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2537,6 +2547,106 @@
         <v>71</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:36:55+00:00</t>
+    <t>2025-10-30T16:59:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2563,7 +2563,7 @@
         <v>72</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>71</v>
@@ -2638,7 +2638,7 @@
         <v>72</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>71</v>

--- a/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:59:08+00:00</t>
+    <t>2025-11-03T11:12:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:12:25+00:00</t>
+    <t>2025-11-03T11:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:13:02+00:00</t>
+    <t>2025-11-03T13:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="145">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T13:49:33+00:00</t>
+    <t>2025-11-03T18:48:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -379,6 +379,66 @@
     <t>Prénom réellement porté par la personne physique dans la vie courante.Il peut s'agir du prénom usuel, du surnom ou du pseudonyme de la personne physique.C'est un trait complémentaire provenant du Référentiel National d'Identitovigilance (RNIV).Le prénom utilisé est obligatoirement renseigné lorsqu’il est différent du premier prénom de naissance.</t>
   </si>
   <si>
+    <t>PersonnePriseCharge.RendezVous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/RendezVous
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe RendezVous</t>
+  </si>
+  <si>
+    <t>PersonnePriseCharge.VieQuotidienne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/VieQuotidienne
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe VieQuotidienne</t>
+  </si>
+  <si>
+    <t>PersonnePriseCharge.VieProfessionnelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/VieProfessionnelle
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe VieProfessionnelle</t>
+  </si>
+  <si>
+    <t>PersonnePriseCharge.VieScolaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/VieScolaire
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe VieScolaire</t>
+  </si>
+  <si>
+    <t>PersonnePriseCharge.NoteLiaison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/NoteLiaison
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe NoteLiaison</t>
+  </si>
+  <si>
+    <t>PersonnePriseCharge.Observation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Observation
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe Observation</t>
+  </si>
+  <si>
     <t>PersonnePriseCharge.Professionnel</t>
   </si>
   <si>
@@ -387,6 +447,26 @@
   </si>
   <si>
     <t>Lien vers la classe Professionnel</t>
+  </si>
+  <si>
+    <t>PersonnePriseCharge.DossierPersonnePriseCharge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/DossierPersonnePriseCharge
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe DossierPersonnePriseCharge</t>
+  </si>
+  <si>
+    <t>PersonnePriseCharge.Agenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Agenda
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe Agenda</t>
   </si>
 </sst>
 </file>
@@ -691,7 +771,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ19"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -710,7 +790,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="61.37109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="68.52734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2647,6 +2727,806 @@
         <v>71</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T18:48:51+00:00</t>
+    <t>2025-11-04T13:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T13:35:30+00:00</t>
+    <t>2025-11-04T14:33:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T14:33:37+00:00</t>
+    <t>2025-11-05T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T10:41:12+00:00</t>
+    <t>2025-11-07T16:48:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T16:48:20+00:00</t>
+    <t>2025-11-14T16:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:26:13+00:00</t>
+    <t>2025-11-14T16:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:42:42+00:00</t>
+    <t>2025-11-25T14:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:31:44+00:00</t>
+    <t>2025-11-25T14:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:47:14+00:00</t>
+    <t>2025-11-27T15:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T15:07:49+00:00</t>
+    <t>2025-11-27T17:02:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:02:40+00:00</t>
+    <t>2025-12-02T09:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T09:57:01+00:00</t>
+    <t>2025-12-02T14:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:07:59+00:00</t>
+    <t>2025-12-02T14:23:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:23:57+00:00</t>
+    <t>2025-12-02T14:53:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-PersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:53:18+00:00</t>
+    <t>2025-12-02T15:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
